--- a/src/main/resources/template/excel/export/newGoodsApplyReport.xlsx
+++ b/src/main/resources/template/excel/export/newGoodsApplyReport.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="8280"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -29,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>商品名称</t>
   </si>
@@ -182,6 +186,21 @@
   </si>
   <si>
     <t>${obj.examineStatus.value}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(K3)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(L3)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(M3)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -191,9 +210,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +263,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -286,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,11 +336,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,6 +351,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,7 +438,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -622,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,25 +742,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -731,7 +828,7 @@
       <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -771,7 +868,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/newGoodsApplyReport.xlsx
+++ b/src/main/resources/template/excel/export/newGoodsApplyReport.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="8280"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -191,7 +195,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -310,11 +314,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,25 +649,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -731,7 +735,7 @@
       <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -775,7 +779,7 @@
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -865,7 +869,6 @@
     <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/src/main/resources/template/excel/export/newGoodsApplyReport.xlsx
+++ b/src/main/resources/template/excel/export/newGoodsApplyReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>商品名称</t>
   </si>
@@ -186,21 +186,6 @@
   </si>
   <si>
     <t>${obj.examineStatus.value}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +197,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -312,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,83 +320,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -438,7 +345,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -717,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,37 +775,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -988,7 +869,6 @@
     <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
